--- a/My Training Courses.xlsx
+++ b/My Training Courses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19545" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="221">
   <si>
     <t xml:space="preserve">Name of the training course </t>
   </si>
@@ -374,12 +374,342 @@
   <si>
     <t>EICT IIT Guwahati</t>
   </si>
+  <si>
+    <t>Udemy Course /Cognizant (Latest 2024)</t>
+  </si>
+  <si>
+    <t>Mastering Utility Network Management with ArcGIS Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5 hr </t>
+  </si>
+  <si>
+    <t>Have to complete</t>
+  </si>
+  <si>
+    <t>Advanced Python: Python packaging. Pip install your scripts!</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-181a6c1a-d023-48b0-b321-44a2c68634f6/</t>
+  </si>
+  <si>
+    <t>Web Mapping and Web-GIS from Dev to Deployment: GeoDjango</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-f7a95a29-ca64-4700-b97f-a67e10d59925/</t>
+  </si>
+  <si>
+    <t>Google Earth Engine for Machine Learning &amp; Change Detection</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-5c292258-e389-477b-890c-e38e523c2ca2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intermediate to advanced python 10- OOP project </t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/share/10aUX63@9u8SusTxaO3p-1gNW5j4OCqSNiqEQ8KAO9APNx9AvaasCyjIR7Lfcnx4NBWt_QcLxg==/</t>
+  </si>
+  <si>
+    <t>Python 3: Deep Dive (Part 2 - Iterators, Generators)</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-257bc598-f392-449a-9bcd-9adfc6207d1e/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DevOps: CICD with Git GitLab Jenkins, Docker and Django</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-de64dae1-501d-443f-9eeb-f23950bf2e03/</t>
+  </si>
+  <si>
+    <t>Web Scraping in Python Selenium, Scrapy + ChatGPT Prize 2024</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-7ba43eba-e0f9-43b2-bc7b-86bec2736258/</t>
+  </si>
+  <si>
+    <t>Python packaging course</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/course/python-packaging/</t>
+  </si>
+  <si>
+    <t>Openlayers 6 From Scratch With A Project</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-b0f7325e-8fc3-498a-95a9-13fca3634952/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Online Dashboards &amp; Story Maps using arcGIS Online </t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-d14ebb80-a30c-4a90-bf8f-c4885ca94a11/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Google Earth Engine(GEE) For Spatial Data Analysis </t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-cd0a4186-16ff-4c0b-9955-ebb6fc220cdc/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Digital banking and information technology(IT)  in banks</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-d62724ae-b25b-4257-979f-9459c7045d10/</t>
+  </si>
+  <si>
+    <t> Recurring Digital Payment, PayPal, ACH(NACHA/Direct Debit)</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-0c9cfdc0-d649-4728-97c1-a6535850fde3/</t>
+  </si>
+  <si>
+    <t>Power BI Masterclass from Scratch in 90 minutes [2024]</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-23bb3f74-967e-4788-89ea-8846b3d2e561/</t>
+  </si>
+  <si>
+    <t>Step by Step Rest API Testing using Python + Pytest +Allure</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-904ed370-86cb-4456-935c-2b5e677e49d2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Docker and Kubernetes: The Complete Guide</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-b8b52ef2-0dde-4f76-a9c0-13f515b0746d/</t>
+  </si>
+  <si>
+    <t>Azure Databricks &amp; Spark For Data Engineers (PySpark / SQL)</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-a62fb3cc-387e-4413-b7b3-908278ad3ca2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my udemy </t>
+  </si>
+  <si>
+    <t>Ultimate AWS Certified Developer Associate 2024 NEW DVA-C02</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-3b52a380-8b69-41f0-b772-43086981dfcd/</t>
+  </si>
+  <si>
+    <t> Mastering Django 5.0 &amp; DRF - The Complete Reference Guide </t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-99c417c2-e145-44e6-8ff6-10c1ff68fd9d/</t>
+  </si>
+  <si>
+    <t>Amazon Bedrock - Learn AI on AWS with Python!</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-c301eed9-4768-45fa-9980-dcbeec40db95/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LLMs Mastery: Complete Guide to Transformers &amp; Generative AI </t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-583eab6c-3898-45ae-82b9-2caaa3c8db27/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Faster with AI: ChatGPT, GitHub Copilot, Tabnine &amp; More </t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-888240d4-c967-42df-974b-286913e6e2ff/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Complete Prompt Engineering for AI Bootcamp (2024) </t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-debc2b6f-6750-46b2-b244-d7f475965bc8/</t>
+  </si>
+  <si>
+    <t>Mastering GitHub Copilot for JavaScript and React Developers</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-cebc57e5-9056-4440-8d01-45ade2997346/</t>
+  </si>
+  <si>
+    <t>Docker for Python Django Developers</t>
+  </si>
+  <si>
+    <t> ChatGPT for Programmers: Build Python Apps in Seconds</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-89634225-3ca8-4023-afb3-5628646dc5a3/</t>
+  </si>
+  <si>
+    <t>Mastering GitHub Copilot for Python &amp; Django REST Developers</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-0a49c683-1568-42e6-babf-adae7fef3d39/</t>
+  </si>
+  <si>
+    <t>OpenAI with Python: GPT 3/4, Dall-E, Whisper and TTS [2024]</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-d1d0602e-4472-47ee-934b-98f9eaff5f75/</t>
+  </si>
+  <si>
+    <t>Software Architecture &amp; Design of Modern Large Scale Systems </t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-f9d16361-cdb9-4602-b2ca-5f24793a60be/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentals of Remote Sensing and Geospatial Analysis </t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-99d615f2-46ea-44b7-8179-4651af09a6f7/</t>
+  </si>
+  <si>
+    <t>ArcPy for Python Developers using ArcGIS Pro </t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-dafb5631-61a8-442e-a910-46aebb9ca2fe/</t>
+  </si>
+  <si>
+    <t>GitHub Copilot: Use AI to write code for you! (Copilot 2024)</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-03bb9136-80bd-45d7-95ab-a62a12c59058/</t>
+  </si>
+  <si>
+    <t>Automate Everything with Python</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-6b0f91ec-110a-4d94-a2ac-b051dcb0c26b/</t>
+  </si>
+  <si>
+    <t>Introduction to OpenAI API &amp; ChatGPT API for Developers</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-f5dd6274-db29-4134-90f7-a1b0d7b5b64b/</t>
+  </si>
+  <si>
+    <t>Executive Briefing: Artificial Intelligence (AI) + ChatGPT</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-ffbaf988-2bec-46cf-83b5-8a079d979352/</t>
+  </si>
+  <si>
+    <t>Build An API With The Django Rest Framework Using Python</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-e6955579-05cc-4c84-b424-72d65ba59baa/</t>
+  </si>
+  <si>
+    <t>Learn Deep Learning in ArcGIS to advance GIS skills</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-26d0ad4a-13a7-414c-b8ba-524afc576ce9/</t>
+  </si>
+  <si>
+    <t> FastAPI - The Complete Course 2024 (Beginner + Advanced) </t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-c00a4d44-8e65-4d4a-96a2-d2251cd16c6b/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python Database Mastery: Dive into SQLAlchemy &amp; Alembic </t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-a540cd20-d5e1-484e-a84e-7ec30b5eec06/</t>
+  </si>
+  <si>
+    <t>API and Web Service Introduction</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-35877cd7-edcf-41f3-989a-026a39c6916c/</t>
+  </si>
+  <si>
+    <t>OpenAi chatGpt Api for Developer certificate </t>
+  </si>
+  <si>
+    <t> Build a Backend REST API with Python &amp; Django - Advanced</t>
+  </si>
+  <si>
+    <t>https://cognizant.udemy.com/certificate/UC-6fb1afba-df89-4bcc-8cf9-1416d2e6e269/</t>
+  </si>
+  <si>
+    <t>GitHub Copilot: Use AI to write code for you! (Copilot 2024) </t>
+  </si>
+  <si>
+    <t>YeS</t>
+  </si>
+  <si>
+    <t>10 Hr</t>
+  </si>
+  <si>
+    <t>1.5 Hr</t>
+  </si>
+  <si>
+    <t>12 Hr</t>
+  </si>
+  <si>
+    <t>2.5 Hr</t>
+  </si>
+  <si>
+    <t>6.5 Hr</t>
+  </si>
+  <si>
+    <t>3.5 Hr</t>
+  </si>
+  <si>
+    <t>28.5 Hr</t>
+  </si>
+  <si>
+    <t>21.5  Hr</t>
+  </si>
+  <si>
+    <t>20   Hr</t>
+  </si>
+  <si>
+    <t>33.5 Hr</t>
+  </si>
+  <si>
+    <t>29.5 Hr</t>
+  </si>
+  <si>
+    <t>15 Hr</t>
+  </si>
+  <si>
+    <t>4.5 Hr</t>
+  </si>
+  <si>
+    <t>2Hr</t>
+  </si>
+  <si>
+    <t>2 Hr</t>
+  </si>
+  <si>
+    <t>3 Hr</t>
+  </si>
+  <si>
+    <t>7 Hr</t>
+  </si>
+  <si>
+    <t>11.5 Hr</t>
+  </si>
+  <si>
+    <t>20.5 Hr</t>
+  </si>
+  <si>
+    <t>21 Hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 Hr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +746,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -460,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -485,6 +839,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -790,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I53"/>
+  <dimension ref="A2:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,6 +1906,787 @@
         <v>15</v>
       </c>
     </row>
+    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>2</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>3</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>5</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>6</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="20">
+        <v>36</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>7</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="20">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>8</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>9</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>10</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>11</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>12</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>13</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>14</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>15</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>16</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>17</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>18</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>19</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>20</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>21</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>22</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>23</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>24</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>25</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>26</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>27</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>28</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>29</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>30</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>31</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>32</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="2" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>33</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>34</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>35</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>36</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>37</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>38</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>39</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>40</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>41</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>42</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="2" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>43</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>44</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>45</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B28" r:id="rId1"/>
@@ -1551,9 +2699,23 @@
     <hyperlink ref="E36" r:id="rId8"/>
     <hyperlink ref="E37" r:id="rId9"/>
     <hyperlink ref="E38" r:id="rId10"/>
+    <hyperlink ref="E57" r:id="rId11"/>
+    <hyperlink ref="E58" r:id="rId12"/>
+    <hyperlink ref="E62" r:id="rId13"/>
+    <hyperlink ref="E61" r:id="rId14"/>
+    <hyperlink ref="E63" r:id="rId15"/>
+    <hyperlink ref="E66" r:id="rId16"/>
+    <hyperlink ref="E73" r:id="rId17"/>
+    <hyperlink ref="E75" r:id="rId18"/>
+    <hyperlink ref="E77" r:id="rId19"/>
+    <hyperlink ref="E80" r:id="rId20"/>
+    <hyperlink ref="E81" r:id="rId21"/>
+    <hyperlink ref="E86" r:id="rId22"/>
+    <hyperlink ref="E92" r:id="rId23"/>
+    <hyperlink ref="E95" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
 
